--- a/data/trans_orig/P6710-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6710-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{268CECD9-5161-4DB1-AFC6-12E9931526DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30B55470-8344-4C79-B86C-D875E73F3F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8CB3882-A819-4E6E-8451-E34EA5F1F5ED}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F79755D4-4BC9-4BF5-8C8C-B459F0D02C03}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="521">
   <si>
     <t>Población según si puede decidir cuándo hace un descanso en 2012 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -75,10 +75,10 @@
     <t>9,96%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
   </si>
   <si>
     <t>12,87%</t>
@@ -87,16 +87,16 @@
     <t>3,82%</t>
   </si>
   <si>
-    <t>30,2%</t>
+    <t>31,0%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -105,1492 +105,1501 @@
     <t>10,21%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
   </si>
   <si>
     <t>10,87%</t>
   </si>
   <si>
-    <t>5,6%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede decidir cuándo hace un descanso en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
   </si>
   <si>
     <t>19,93%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
   </si>
   <si>
     <t>15,75%</t>
   </si>
   <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
   </si>
   <si>
     <t>26,04%</t>
   </si>
   <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede decidir cuándo hace un descanso en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
     <t>18,47%</t>
   </si>
   <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
   </si>
   <si>
     <t>19,88%</t>
   </si>
   <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
   </si>
   <si>
     <t>24,03%</t>
   </si>
   <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
   </si>
 </sst>
 </file>
@@ -2002,7 +2011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A769689B-127A-4ABC-8941-4A003533366D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBD2A7A-A2BF-4B35-A327-729772A13F06}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2261,16 +2270,16 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>12</v>
@@ -2279,13 +2288,13 @@
         <v>11273</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2294,13 +2303,13 @@
         <v>5763</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -2309,19 +2318,19 @@
         <v>17036</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>27</v>
@@ -2330,13 +2339,13 @@
         <v>24780</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -2345,13 +2354,13 @@
         <v>11030</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -2360,13 +2369,13 @@
         <v>35810</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,13 +2390,13 @@
         <v>51733</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -2396,13 +2405,13 @@
         <v>25186</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>76</v>
@@ -2411,18 +2420,18 @@
         <v>76919</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2434,13 +2443,13 @@
         <v>22628</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -2452,10 +2461,10 @@
         <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -2464,13 +2473,13 @@
         <v>35567</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2494,13 @@
         <v>17677</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -2500,13 +2509,13 @@
         <v>12395</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -2515,13 +2524,13 @@
         <v>30072</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2545,13 @@
         <v>29246</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>25</v>
@@ -2551,13 +2560,13 @@
         <v>27470</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -2566,19 +2575,19 @@
         <v>56716</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>39</v>
@@ -2587,13 +2596,13 @@
         <v>38781</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -2602,13 +2611,13 @@
         <v>22874</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -2617,19 +2626,19 @@
         <v>61655</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>104</v>
@@ -2638,13 +2647,13 @@
         <v>108872</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -2653,13 +2662,13 @@
         <v>60412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>162</v>
@@ -2668,13 +2677,13 @@
         <v>169284</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,13 +2698,13 @@
         <v>217204</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>128</v>
@@ -2704,13 +2713,13 @@
         <v>136089</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>334</v>
@@ -2719,18 +2728,18 @@
         <v>353293</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2742,13 +2751,13 @@
         <v>44113</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -2757,13 +2766,13 @@
         <v>28355</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -2772,13 +2781,13 @@
         <v>72468</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2802,13 @@
         <v>30170</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -2808,13 +2817,13 @@
         <v>17141</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -2823,13 +2832,13 @@
         <v>47310</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2853,13 @@
         <v>83434</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -2859,13 +2868,13 @@
         <v>46120</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>118</v>
@@ -2874,19 +2883,19 @@
         <v>129554</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>81</v>
@@ -2895,13 +2904,13 @@
         <v>87270</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -2910,13 +2919,13 @@
         <v>65791</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
@@ -2925,19 +2934,19 @@
         <v>153061</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>152</v>
@@ -2946,13 +2955,13 @@
         <v>163637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>98</v>
@@ -2961,13 +2970,13 @@
         <v>110942</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>250</v>
@@ -2976,13 +2985,13 @@
         <v>274579</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,13 +3006,13 @@
         <v>408624</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>243</v>
@@ -3012,13 +3021,13 @@
         <v>268348</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>619</v>
@@ -3027,18 +3036,18 @@
         <v>676973</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3050,13 +3059,13 @@
         <v>28882</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -3065,13 +3074,13 @@
         <v>30336</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>55</v>
@@ -3080,13 +3089,13 @@
         <v>59218</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3110,13 @@
         <v>19344</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -3116,10 +3125,10 @@
         <v>19852</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>164</v>
@@ -3194,7 +3203,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>49</v>
@@ -3245,7 +3254,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>128</v>
@@ -3305,13 +3314,13 @@
         <v>316313</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>188</v>
@@ -3320,13 +3329,13 @@
         <v>210377</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>475</v>
@@ -3335,13 +3344,13 @@
         <v>526690</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3367,13 @@
         <v>37813</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>45</v>
@@ -3373,13 +3382,13 @@
         <v>47939</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>83</v>
@@ -3388,13 +3397,13 @@
         <v>85752</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,10 +3421,10 @@
         <v>37</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -3424,13 +3433,13 @@
         <v>39433</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>71</v>
@@ -3439,13 +3448,13 @@
         <v>78969</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3469,13 @@
         <v>101542</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>64</v>
@@ -3475,13 +3484,13 @@
         <v>65978</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>165</v>
@@ -3490,19 +3499,19 @@
         <v>167521</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>111</v>
@@ -3511,13 +3520,13 @@
         <v>112800</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H31" s="7">
         <v>52</v>
@@ -3526,13 +3535,13 @@
         <v>53738</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>163</v>
@@ -3541,19 +3550,19 @@
         <v>166539</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>117</v>
@@ -3562,13 +3571,13 @@
         <v>124125</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>90</v>
@@ -3577,13 +3586,13 @@
         <v>93468</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>207</v>
@@ -3592,13 +3601,13 @@
         <v>217592</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3622,13 @@
         <v>415817</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>287</v>
@@ -3628,13 +3637,13 @@
         <v>300556</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>689</v>
@@ -3643,13 +3652,13 @@
         <v>716372</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3675,13 @@
         <v>138589</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>114</v>
@@ -3681,13 +3690,13 @@
         <v>122811</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M34" s="7">
         <v>243</v>
@@ -3696,13 +3705,13 @@
         <v>261400</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3726,13 @@
         <v>112006</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="H35" s="7">
         <v>83</v>
@@ -3732,13 +3741,13 @@
         <v>91903</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M35" s="7">
         <v>185</v>
@@ -3747,13 +3756,13 @@
         <v>203909</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,10 +3780,10 @@
         <v>174</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H36" s="7">
         <v>164</v>
@@ -3783,13 +3792,13 @@
         <v>177225</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M36" s="7">
         <v>438</v>
@@ -3798,19 +3807,19 @@
         <v>470813</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>292</v>
@@ -3819,13 +3828,13 @@
         <v>302099</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H37" s="7">
         <v>177</v>
@@ -3834,13 +3843,13 @@
         <v>187902</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M37" s="7">
         <v>469</v>
@@ -3849,19 +3858,19 @@
         <v>490001</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>268</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>528</v>
@@ -3870,13 +3879,13 @@
         <v>563409</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H38" s="7">
         <v>330</v>
@@ -3885,13 +3894,13 @@
         <v>360716</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M38" s="7">
         <v>858</v>
@@ -3900,13 +3909,13 @@
         <v>924125</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,13 +3930,13 @@
         <v>1409691</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>868</v>
@@ -3936,13 +3945,13 @@
         <v>940556</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>2193</v>
@@ -3951,18 +3960,18 @@
         <v>2350247</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3983,7 +3992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8976EF44-C753-422E-AA28-C32D5FEC1222}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DE4C80-8C71-4B2A-B5B7-ADFB5BB6EE34}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4000,7 +4009,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4107,13 +4116,13 @@
         <v>8116</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4122,13 +4131,13 @@
         <v>2682</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4137,13 +4146,13 @@
         <v>10798</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>288</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4167,13 @@
         <v>4861</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4173,13 +4182,13 @@
         <v>3390</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -4188,13 +4197,13 @@
         <v>8251</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4218,13 @@
         <v>5942</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4224,13 +4233,13 @@
         <v>7233</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4239,19 +4248,19 @@
         <v>13174</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>14</v>
@@ -4260,13 +4269,13 @@
         <v>14473</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4275,13 +4284,13 @@
         <v>6470</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -4290,19 +4299,19 @@
         <v>20944</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>10</v>
@@ -4311,13 +4320,13 @@
         <v>10629</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -4326,13 +4335,13 @@
         <v>10116</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -4341,13 +4350,13 @@
         <v>20745</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,13 +4371,13 @@
         <v>44021</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -4377,13 +4386,13 @@
         <v>29891</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>75</v>
@@ -4392,18 +4401,18 @@
         <v>73912</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4415,13 +4424,13 @@
         <v>24055</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -4430,13 +4439,13 @@
         <v>23014</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -4445,13 +4454,13 @@
         <v>47068</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,7 +4475,7 @@
         <v>24190</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>333</v>
@@ -4487,7 +4496,7 @@
         <v>336</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="M11" s="7">
         <v>45</v>
@@ -4496,13 +4505,13 @@
         <v>46301</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,13 +4526,13 @@
         <v>48126</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -4532,13 +4541,13 @@
         <v>35357</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M12" s="7">
         <v>83</v>
@@ -4547,7 +4556,7 @@
         <v>83483</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>345</v>
+        <v>176</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>346</v>
@@ -4559,7 +4568,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>45</v>
@@ -4604,13 +4613,13 @@
         <v>355</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>51</v>
@@ -4619,13 +4628,13 @@
         <v>55758</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -4634,13 +4643,13 @@
         <v>29118</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>81</v>
@@ -4649,13 +4658,13 @@
         <v>84876</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4679,13 @@
         <v>199269</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>142</v>
@@ -4685,13 +4694,13 @@
         <v>137478</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>330</v>
@@ -4700,18 +4709,18 @@
         <v>336747</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4723,13 +4732,13 @@
         <v>51104</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>367</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -4738,13 +4747,13 @@
         <v>31425</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>76</v>
@@ -4753,13 +4762,13 @@
         <v>82529</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>373</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,13 +4783,13 @@
         <v>59976</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>372</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -4789,13 +4798,13 @@
         <v>48030</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>325</v>
+        <v>377</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>378</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -4804,13 +4813,13 @@
         <v>108006</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4834,13 @@
         <v>97787</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H18" s="7">
         <v>69</v>
@@ -4840,13 +4849,13 @@
         <v>68210</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M18" s="7">
         <v>158</v>
@@ -4855,19 +4864,19 @@
         <v>165997</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>89</v>
@@ -4876,13 +4885,13 @@
         <v>100206</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -4891,13 +4900,13 @@
         <v>61229</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="M19" s="7">
         <v>149</v>
@@ -4906,19 +4915,19 @@
         <v>161435</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>285</v>
+        <v>33</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>81</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>95</v>
@@ -4927,13 +4936,13 @@
         <v>104968</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -4942,13 +4951,13 @@
         <v>64877</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>280</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>154</v>
@@ -4957,13 +4966,13 @@
         <v>169844</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,13 +4987,13 @@
         <v>414041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -4993,13 +5002,13 @@
         <v>273771</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>639</v>
@@ -5008,18 +5017,18 @@
         <v>687812</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5031,13 +5040,13 @@
         <v>46083</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -5046,13 +5055,13 @@
         <v>33567</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="M22" s="7">
         <v>73</v>
@@ -5061,13 +5070,13 @@
         <v>79650</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>244</v>
+        <v>413</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5091,13 @@
         <v>78648</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="H23" s="7">
         <v>65</v>
@@ -5097,13 +5106,13 @@
         <v>64822</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>412</v>
+        <v>314</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="M23" s="7">
         <v>135</v>
@@ -5112,13 +5121,13 @@
         <v>143470</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>261</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>415</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,13 +5142,13 @@
         <v>111411</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>341</v>
+        <v>423</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="H24" s="7">
         <v>76</v>
@@ -5148,13 +5157,13 @@
         <v>77642</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="M24" s="7">
         <v>176</v>
@@ -5163,19 +5172,19 @@
         <v>189054</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>53</v>
@@ -5184,13 +5193,13 @@
         <v>59245</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -5199,13 +5208,13 @@
         <v>36546</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>66</v>
+        <v>436</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -5214,19 +5223,19 @@
         <v>95791</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>428</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>64</v>
@@ -5235,13 +5244,13 @@
         <v>68433</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -5250,13 +5259,13 @@
         <v>57981</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="M26" s="7">
         <v>119</v>
@@ -5265,13 +5274,13 @@
         <v>126414</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>29</v>
+        <v>444</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>434</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5295,13 @@
         <v>363820</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>265</v>
@@ -5301,13 +5310,13 @@
         <v>270558</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
@@ -5316,13 +5325,13 @@
         <v>634378</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,13 +5348,13 @@
         <v>52095</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>437</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="H28" s="7">
         <v>62</v>
@@ -5354,13 +5363,13 @@
         <v>65284</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="M28" s="7">
         <v>112</v>
@@ -5369,13 +5378,13 @@
         <v>117379</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5399,13 @@
         <v>57216</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>445</v>
+        <v>108</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -5405,13 +5414,13 @@
         <v>50469</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>292</v>
+        <v>457</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="M29" s="7">
         <v>105</v>
@@ -5420,13 +5429,13 @@
         <v>107685</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>450</v>
+        <v>374</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>77</v>
+        <v>459</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5450,13 @@
         <v>100297</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="H30" s="7">
         <v>74</v>
@@ -5456,13 +5465,13 @@
         <v>76334</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="M30" s="7">
         <v>173</v>
@@ -5471,19 +5480,19 @@
         <v>176631</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>75</v>
@@ -5492,13 +5501,13 @@
         <v>76292</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="H31" s="7">
         <v>56</v>
@@ -5507,13 +5516,13 @@
         <v>59449</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>258</v>
+        <v>473</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>464</v>
+        <v>337</v>
       </c>
       <c r="M31" s="7">
         <v>131</v>
@@ -5522,19 +5531,19 @@
         <v>135741</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>466</v>
+        <v>64</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>112</v>
@@ -5543,13 +5552,13 @@
         <v>115271</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="H32" s="7">
         <v>67</v>
@@ -5558,13 +5567,13 @@
         <v>73938</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>471</v>
+        <v>173</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="M32" s="7">
         <v>179</v>
@@ -5573,13 +5582,13 @@
         <v>189209</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>139</v>
+        <v>482</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>474</v>
+        <v>173</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5603,13 @@
         <v>401171</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>307</v>
@@ -5609,13 +5618,13 @@
         <v>325474</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>700</v>
@@ -5624,13 +5633,13 @@
         <v>726645</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,13 +5656,13 @@
         <v>181453</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>476</v>
+        <v>48</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="H34" s="7">
         <v>154</v>
@@ -5662,13 +5671,13 @@
         <v>155972</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="M34" s="7">
         <v>319</v>
@@ -5677,13 +5686,13 @@
         <v>337425</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,13 +5707,13 @@
         <v>224891</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>487</v>
+        <v>225</v>
       </c>
       <c r="H35" s="7">
         <v>187</v>
@@ -5713,13 +5722,13 @@
         <v>188822</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="M35" s="7">
         <v>396</v>
@@ -5728,13 +5737,13 @@
         <v>413714</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,13 +5758,13 @@
         <v>363562</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>496</v>
+        <v>321</v>
       </c>
       <c r="H36" s="7">
         <v>263</v>
@@ -5764,13 +5773,13 @@
         <v>264777</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>497</v>
+        <v>231</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>43</v>
+        <v>502</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="M36" s="7">
         <v>604</v>
@@ -5779,19 +5788,19 @@
         <v>628339</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>500</v>
+        <v>329</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>276</v>
@@ -5800,13 +5809,13 @@
         <v>297358</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="H37" s="7">
         <v>188</v>
@@ -5815,13 +5824,13 @@
         <v>191571</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="M37" s="7">
         <v>464</v>
@@ -5830,19 +5839,19 @@
         <v>488929</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>258</v>
+        <v>512</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>357</v>
+        <v>513</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>332</v>
@@ -5851,13 +5860,13 @@
         <v>355058</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>510</v>
+        <v>421</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H38" s="7">
         <v>221</v>
@@ -5866,13 +5875,13 @@
         <v>236029</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>512</v>
+        <v>270</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="M38" s="7">
         <v>553</v>
@@ -5881,13 +5890,13 @@
         <v>591087</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,13 +5911,13 @@
         <v>1422322</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>1013</v>
@@ -5917,13 +5926,13 @@
         <v>1037172</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>2336</v>
@@ -5932,18 +5941,18 @@
         <v>2459494</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6710-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6710-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30B55470-8344-4C79-B86C-D875E73F3F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7237A10B-F802-40DA-A81C-C91A4581A67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F79755D4-4BC9-4BF5-8C8C-B459F0D02C03}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1398A65B-5F5B-4ADC-8B44-6515942A7332}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="517">
   <si>
     <t>Población según si puede decidir cuándo hace un descanso en 2012 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -75,28 +75,28 @@
     <t>9,96%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
   </si>
   <si>
     <t>12,87%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -105,28 +105,28 @@
     <t>10,21%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
   </si>
   <si>
     <t>10,87%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -135,1459 +135,1447 @@
     <t>10,14%</t>
   </si>
   <si>
-    <t>3,51%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede decidir cuándo hace un descanso en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
   </si>
   <si>
     <t>23,47%</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
   </si>
   <si>
     <t>13,15%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
   </si>
   <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
   </si>
   <si>
     <t>22,76%</t>
   </si>
   <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede decidir cuándo hace un descanso en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
+    <t>20,24%</t>
   </si>
   <si>
     <t>25,48%</t>
@@ -1596,10 +1584,10 @@
     <t>24,03%</t>
   </si>
   <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
 </sst>
 </file>
@@ -2011,7 +1999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBD2A7A-A2BF-4B35-A327-729772A13F06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263BAF6C-5FF4-4CBA-86A9-C1582457A5CC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2602,7 +2590,7 @@
         <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -2611,13 +2599,13 @@
         <v>22874</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -2626,13 +2614,13 @@
         <v>61655</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,13 +2635,13 @@
         <v>108872</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -2662,13 +2650,13 @@
         <v>60412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>162</v>
@@ -2677,13 +2665,13 @@
         <v>169284</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,7 +2727,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2751,13 +2739,13 @@
         <v>44113</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -2766,13 +2754,13 @@
         <v>28355</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -2781,13 +2769,13 @@
         <v>72468</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,13 +2790,13 @@
         <v>30170</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -2817,13 +2805,13 @@
         <v>17141</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -2832,13 +2820,13 @@
         <v>47310</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2841,13 @@
         <v>83434</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -2868,13 +2856,13 @@
         <v>46120</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>118</v>
@@ -2883,13 +2871,13 @@
         <v>129554</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2892,13 @@
         <v>87270</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -2919,13 +2907,13 @@
         <v>65791</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
@@ -2934,13 +2922,13 @@
         <v>153061</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2943,13 @@
         <v>163637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>98</v>
@@ -2970,13 +2958,13 @@
         <v>110942</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>250</v>
@@ -2985,13 +2973,13 @@
         <v>274579</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,7 +3035,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3059,13 +3047,13 @@
         <v>28882</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -3074,13 +3062,13 @@
         <v>30336</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>55</v>
@@ -3089,13 +3077,13 @@
         <v>59218</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3098,13 @@
         <v>19344</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -3125,13 +3113,13 @@
         <v>19852</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>35</v>
@@ -3140,13 +3128,13 @@
         <v>39196</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3149,13 @@
         <v>74118</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -3176,13 +3164,13 @@
         <v>35589</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>95</v>
@@ -3191,13 +3179,13 @@
         <v>109707</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3200,13 @@
         <v>51974</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -3227,13 +3215,13 @@
         <v>39736</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>87</v>
@@ -3242,13 +3230,13 @@
         <v>91710</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3251,13 @@
         <v>141996</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H26" s="7">
         <v>75</v>
@@ -3278,13 +3266,13 @@
         <v>84864</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>203</v>
@@ -3293,13 +3281,13 @@
         <v>226859</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,7 +3343,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3367,13 +3355,13 @@
         <v>37813</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H28" s="7">
         <v>45</v>
@@ -3382,13 +3370,13 @@
         <v>47939</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M28" s="7">
         <v>83</v>
@@ -3397,13 +3385,13 @@
         <v>85752</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,10 +3409,10 @@
         <v>37</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -3433,13 +3421,13 @@
         <v>39433</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M29" s="7">
         <v>71</v>
@@ -3448,13 +3436,13 @@
         <v>78969</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3457,13 @@
         <v>101542</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H30" s="7">
         <v>64</v>
@@ -3484,13 +3472,13 @@
         <v>65978</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M30" s="7">
         <v>165</v>
@@ -3499,13 +3487,13 @@
         <v>167521</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3508,13 @@
         <v>112800</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H31" s="7">
         <v>52</v>
@@ -3535,13 +3523,13 @@
         <v>53738</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M31" s="7">
         <v>163</v>
@@ -3550,13 +3538,13 @@
         <v>166539</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3559,13 @@
         <v>124125</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H32" s="7">
         <v>90</v>
@@ -3586,13 +3574,13 @@
         <v>93468</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M32" s="7">
         <v>207</v>
@@ -3601,13 +3589,13 @@
         <v>217592</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3663,13 @@
         <v>138589</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H34" s="7">
         <v>114</v>
@@ -3690,13 +3678,13 @@
         <v>122811</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M34" s="7">
         <v>243</v>
@@ -3705,13 +3693,13 @@
         <v>261400</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3714,13 @@
         <v>112006</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H35" s="7">
         <v>83</v>
@@ -3741,13 +3729,13 @@
         <v>91903</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>252</v>
+        <v>108</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M35" s="7">
         <v>185</v>
@@ -3756,13 +3744,13 @@
         <v>203909</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3765,13 @@
         <v>293588</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H36" s="7">
         <v>164</v>
@@ -3792,13 +3780,13 @@
         <v>177225</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M36" s="7">
         <v>438</v>
@@ -3807,13 +3795,13 @@
         <v>470813</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3816,13 @@
         <v>302099</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H37" s="7">
         <v>177</v>
@@ -3843,13 +3831,13 @@
         <v>187902</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M37" s="7">
         <v>469</v>
@@ -3858,13 +3846,13 @@
         <v>490001</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>138</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3867,13 @@
         <v>563409</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H38" s="7">
         <v>330</v>
@@ -3894,13 +3882,13 @@
         <v>360716</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M38" s="7">
         <v>858</v>
@@ -3909,13 +3897,13 @@
         <v>924125</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,7 +3959,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3992,7 +3980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DE4C80-8C71-4B2A-B5B7-ADFB5BB6EE34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245EE24B-3A08-4F52-AE02-505F65CF29BA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4009,7 +3997,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4116,13 +4104,13 @@
         <v>8116</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4131,13 +4119,13 @@
         <v>2682</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4146,13 +4134,13 @@
         <v>10798</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4155,13 @@
         <v>4861</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>292</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4182,13 +4170,13 @@
         <v>3390</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -4197,13 +4185,13 @@
         <v>8251</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4206,13 @@
         <v>5942</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4233,13 +4221,13 @@
         <v>7233</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4248,13 +4236,13 @@
         <v>13174</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4257,13 @@
         <v>14473</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4284,13 +4272,13 @@
         <v>6470</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>311</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -4299,13 +4287,13 @@
         <v>20944</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4308,13 @@
         <v>10629</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -4335,13 +4323,13 @@
         <v>10116</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -4350,13 +4338,13 @@
         <v>20745</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>321</v>
+        <v>84</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>322</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4412,13 @@
         <v>24055</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -4439,13 +4427,13 @@
         <v>23014</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -4454,13 +4442,13 @@
         <v>47068</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4463,13 @@
         <v>24190</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>335</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -4490,13 +4478,13 @@
         <v>22112</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>336</v>
+        <v>121</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M11" s="7">
         <v>45</v>
@@ -4505,13 +4493,13 @@
         <v>46301</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4514,13 @@
         <v>48126</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -4541,13 +4529,13 @@
         <v>35357</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>343</v>
+        <v>142</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>344</v>
+        <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M12" s="7">
         <v>83</v>
@@ -4556,13 +4544,13 @@
         <v>83483</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>176</v>
+        <v>347</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4565,13 @@
         <v>47141</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4592,13 +4580,13 @@
         <v>27877</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>351</v>
+        <v>231</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -4607,13 +4595,13 @@
         <v>75019</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4616,13 @@
         <v>55758</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -4643,13 +4631,13 @@
         <v>29118</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M14" s="7">
         <v>81</v>
@@ -4658,10 +4646,10 @@
         <v>84876</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>364</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>365</v>
@@ -4720,7 +4708,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4747,13 +4735,13 @@
         <v>31425</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>76</v>
@@ -4762,13 +4750,13 @@
         <v>82529</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,10 +4771,10 @@
         <v>59976</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>376</v>
@@ -4801,10 +4789,10 @@
         <v>377</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -4813,13 +4801,13 @@
         <v>108006</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4822,13 @@
         <v>97787</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="H18" s="7">
         <v>69</v>
@@ -4849,13 +4837,13 @@
         <v>68210</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M18" s="7">
         <v>158</v>
@@ -4864,13 +4852,13 @@
         <v>165997</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4873,13 @@
         <v>100206</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -4900,13 +4888,13 @@
         <v>61229</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M19" s="7">
         <v>149</v>
@@ -4915,7 +4903,7 @@
         <v>161435</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>33</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>397</v>
@@ -4969,7 +4957,7 @@
         <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>406</v>
@@ -5028,7 +5016,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5076,7 +5064,7 @@
         <v>414</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,13 +5079,13 @@
         <v>78648</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="H23" s="7">
         <v>65</v>
@@ -5106,13 +5094,13 @@
         <v>64822</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>314</v>
+        <v>418</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>420</v>
+        <v>173</v>
       </c>
       <c r="M23" s="7">
         <v>135</v>
@@ -5121,13 +5109,13 @@
         <v>143470</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5130,13 @@
         <v>111411</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="H24" s="7">
         <v>76</v>
@@ -5157,13 +5145,13 @@
         <v>77642</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="M24" s="7">
         <v>176</v>
@@ -5172,13 +5160,13 @@
         <v>189054</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5181,13 @@
         <v>59245</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -5208,13 +5196,13 @@
         <v>36546</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -5223,13 +5211,13 @@
         <v>95791</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5232,13 @@
         <v>68433</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -5259,10 +5247,10 @@
         <v>57981</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>443</v>
@@ -5277,10 +5265,10 @@
         <v>444</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>445</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,7 +5324,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5348,13 +5336,13 @@
         <v>52095</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>242</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H28" s="7">
         <v>62</v>
@@ -5363,13 +5351,13 @@
         <v>65284</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M28" s="7">
         <v>112</v>
@@ -5378,13 +5366,13 @@
         <v>117379</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>453</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,7 +5387,7 @@
         <v>57216</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>108</v>
+        <v>453</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>454</v>
@@ -5420,7 +5408,7 @@
         <v>457</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>458</v>
+        <v>158</v>
       </c>
       <c r="M29" s="7">
         <v>105</v>
@@ -5429,13 +5417,13 @@
         <v>107685</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>374</v>
+        <v>458</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>459</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>460</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,13 +5438,13 @@
         <v>100297</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H30" s="7">
         <v>74</v>
@@ -5465,13 +5453,13 @@
         <v>76334</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="M30" s="7">
         <v>173</v>
@@ -5480,13 +5468,13 @@
         <v>176631</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,13 +5489,13 @@
         <v>76292</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>470</v>
+        <v>323</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H31" s="7">
         <v>56</v>
@@ -5516,13 +5504,13 @@
         <v>59449</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>337</v>
+        <v>13</v>
       </c>
       <c r="M31" s="7">
         <v>131</v>
@@ -5531,13 +5519,13 @@
         <v>135741</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>64</v>
+        <v>473</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,13 +5540,13 @@
         <v>115271</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>477</v>
+        <v>173</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H32" s="7">
         <v>67</v>
@@ -5567,13 +5555,13 @@
         <v>73938</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>173</v>
+        <v>477</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M32" s="7">
         <v>179</v>
@@ -5582,13 +5570,13 @@
         <v>189209</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,7 +5644,7 @@
         <v>181453</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>48</v>
+        <v>483</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>484</v>
@@ -5677,7 +5665,7 @@
         <v>487</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>488</v>
+        <v>186</v>
       </c>
       <c r="M34" s="7">
         <v>319</v>
@@ -5686,13 +5674,13 @@
         <v>337425</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,13 +5695,13 @@
         <v>224891</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H35" s="7">
         <v>187</v>
@@ -5722,13 +5710,13 @@
         <v>188822</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="M35" s="7">
         <v>396</v>
@@ -5737,13 +5725,13 @@
         <v>413714</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>497</v>
+        <v>412</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>499</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5746,13 @@
         <v>363562</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>321</v>
+        <v>497</v>
       </c>
       <c r="H36" s="7">
         <v>263</v>
@@ -5773,13 +5761,13 @@
         <v>264777</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>231</v>
+        <v>498</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>502</v>
+        <v>272</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M36" s="7">
         <v>604</v>
@@ -5788,13 +5776,13 @@
         <v>628339</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>329</v>
+        <v>501</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5797,13 @@
         <v>297358</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>496</v>
+        <v>188</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>506</v>
+        <v>381</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H37" s="7">
         <v>188</v>
@@ -5824,13 +5812,13 @@
         <v>191571</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>510</v>
+        <v>400</v>
       </c>
       <c r="M37" s="7">
         <v>464</v>
@@ -5839,13 +5827,13 @@
         <v>488929</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,13 +5848,13 @@
         <v>355058</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>421</v>
+        <v>140</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H38" s="7">
         <v>221</v>
@@ -5875,13 +5863,13 @@
         <v>236029</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>270</v>
+        <v>511</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="M38" s="7">
         <v>553</v>
@@ -5890,13 +5878,13 @@
         <v>591087</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,7 +5940,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6710-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6710-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7237A10B-F802-40DA-A81C-C91A4581A67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72F382A2-2956-4A98-BF8F-05A7E6405B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1398A65B-5F5B-4ADC-8B44-6515942A7332}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{713C6DF9-BF48-493C-AEBF-0A55120C7517}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="518">
   <si>
     <t>Población según si puede decidir cuándo hace un descanso en 2012 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -75,1519 +75,1522 @@
     <t>9,96%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
   </si>
   <si>
     <t>12,87%</t>
   </si>
   <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede decidir cuándo hace un descanso en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
   </si>
   <si>
     <t>19,55%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
   </si>
   <si>
     <t>10,97%</t>
   </si>
   <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede decidir cuándo hace un descanso en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
   </si>
   <si>
     <t>18,47%</t>
   </si>
   <si>
-    <t>16,31%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
   </si>
   <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>27,33%</t>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
   </si>
   <si>
     <t>22,76%</t>
   </si>
   <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
   </si>
   <si>
     <t>24,03%</t>
   </si>
   <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
   </si>
 </sst>
 </file>
@@ -1999,7 +2002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263BAF6C-5FF4-4CBA-86A9-C1582457A5CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E0255B-FDA8-4E2A-9143-230F810B2D82}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2258,16 +2261,16 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>12</v>
@@ -2276,13 +2279,13 @@
         <v>11273</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2291,13 +2294,13 @@
         <v>5763</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -2306,19 +2309,19 @@
         <v>17036</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>27</v>
@@ -2327,13 +2330,13 @@
         <v>24780</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -2342,13 +2345,13 @@
         <v>11030</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -2357,13 +2360,13 @@
         <v>35810</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,13 +2381,13 @@
         <v>51733</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -2393,13 +2396,13 @@
         <v>25186</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>76</v>
@@ -2408,18 +2411,18 @@
         <v>76919</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2431,13 +2434,13 @@
         <v>22628</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -2449,10 +2452,10 @@
         <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -2461,13 +2464,13 @@
         <v>35567</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2485,13 @@
         <v>17677</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -2497,13 +2500,13 @@
         <v>12395</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -2512,13 +2515,13 @@
         <v>30072</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,13 +2536,13 @@
         <v>29246</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>25</v>
@@ -2548,13 +2551,13 @@
         <v>27470</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -2563,19 +2566,19 @@
         <v>56716</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>39</v>
@@ -2584,13 +2587,13 @@
         <v>38781</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -2599,13 +2602,13 @@
         <v>22874</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -2614,19 +2617,19 @@
         <v>61655</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>104</v>
@@ -2635,13 +2638,13 @@
         <v>108872</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -2650,13 +2653,13 @@
         <v>60412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>162</v>
@@ -2665,13 +2668,13 @@
         <v>169284</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,13 +2689,13 @@
         <v>217204</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>128</v>
@@ -2701,13 +2704,13 @@
         <v>136089</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>334</v>
@@ -2716,18 +2719,18 @@
         <v>353293</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2739,13 +2742,13 @@
         <v>44113</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -2754,13 +2757,13 @@
         <v>28355</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -2769,13 +2772,13 @@
         <v>72468</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2793,13 @@
         <v>30170</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -2805,13 +2808,13 @@
         <v>17141</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -2820,13 +2823,13 @@
         <v>47310</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,13 +2844,13 @@
         <v>83434</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -2856,13 +2859,13 @@
         <v>46120</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>118</v>
@@ -2871,19 +2874,19 @@
         <v>129554</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>81</v>
@@ -2892,13 +2895,13 @@
         <v>87270</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -2907,13 +2910,13 @@
         <v>65791</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
@@ -2922,19 +2925,19 @@
         <v>153061</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>152</v>
@@ -2943,13 +2946,13 @@
         <v>163637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>98</v>
@@ -2958,13 +2961,13 @@
         <v>110942</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>250</v>
@@ -2973,13 +2976,13 @@
         <v>274579</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2997,13 @@
         <v>408624</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>243</v>
@@ -3009,13 +3012,13 @@
         <v>268348</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>619</v>
@@ -3024,18 +3027,18 @@
         <v>676973</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3047,13 +3050,13 @@
         <v>28882</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -3062,13 +3065,13 @@
         <v>30336</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>55</v>
@@ -3077,13 +3080,13 @@
         <v>59218</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3101,13 @@
         <v>19344</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -3113,13 +3116,13 @@
         <v>19852</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>35</v>
@@ -3128,13 +3131,13 @@
         <v>39196</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3152,13 @@
         <v>74118</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -3164,13 +3167,13 @@
         <v>35589</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>95</v>
@@ -3179,19 +3182,19 @@
         <v>109707</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>49</v>
@@ -3200,13 +3203,13 @@
         <v>51974</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -3215,13 +3218,13 @@
         <v>39736</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>87</v>
@@ -3230,19 +3233,19 @@
         <v>91710</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>128</v>
@@ -3251,13 +3254,13 @@
         <v>141996</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>75</v>
@@ -3266,13 +3269,13 @@
         <v>84864</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>203</v>
@@ -3281,13 +3284,13 @@
         <v>226859</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,13 +3305,13 @@
         <v>316313</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>188</v>
@@ -3317,13 +3320,13 @@
         <v>210377</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>475</v>
@@ -3332,18 +3335,18 @@
         <v>526690</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3355,13 +3358,13 @@
         <v>37813</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>45</v>
@@ -3370,13 +3373,13 @@
         <v>47939</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>83</v>
@@ -3385,13 +3388,13 @@
         <v>85752</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,10 +3412,10 @@
         <v>37</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -3421,13 +3424,13 @@
         <v>39433</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>71</v>
@@ -3436,13 +3439,13 @@
         <v>78969</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>214</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3460,13 @@
         <v>101542</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>64</v>
@@ -3472,13 +3475,13 @@
         <v>65978</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>165</v>
@@ -3487,19 +3490,19 @@
         <v>167521</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>111</v>
@@ -3508,13 +3511,13 @@
         <v>112800</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>52</v>
@@ -3523,13 +3526,13 @@
         <v>53738</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>163</v>
@@ -3538,19 +3541,19 @@
         <v>166539</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>117</v>
@@ -3559,13 +3562,13 @@
         <v>124125</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>90</v>
@@ -3574,13 +3577,13 @@
         <v>93468</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>207</v>
@@ -3589,13 +3592,13 @@
         <v>217592</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,13 +3613,13 @@
         <v>415817</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>287</v>
@@ -3625,13 +3628,13 @@
         <v>300556</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>689</v>
@@ -3640,13 +3643,13 @@
         <v>716372</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3666,13 @@
         <v>138589</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>114</v>
@@ -3678,13 +3681,13 @@
         <v>122811</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M34" s="7">
         <v>243</v>
@@ -3693,13 +3696,13 @@
         <v>261400</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,13 +3717,13 @@
         <v>112006</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="H35" s="7">
         <v>83</v>
@@ -3729,13 +3732,13 @@
         <v>91903</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>108</v>
+        <v>248</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M35" s="7">
         <v>185</v>
@@ -3744,13 +3747,13 @@
         <v>203909</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,13 +3768,13 @@
         <v>293588</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>164</v>
@@ -3780,13 +3783,13 @@
         <v>177225</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>262</v>
+        <v>177</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M36" s="7">
         <v>438</v>
@@ -3795,19 +3798,19 @@
         <v>470813</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>292</v>
@@ -3816,13 +3819,13 @@
         <v>302099</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>177</v>
@@ -3831,13 +3834,13 @@
         <v>187902</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>469</v>
@@ -3846,19 +3849,19 @@
         <v>490001</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>528</v>
@@ -3867,13 +3870,13 @@
         <v>563409</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H38" s="7">
         <v>330</v>
@@ -3882,13 +3885,13 @@
         <v>360716</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M38" s="7">
         <v>858</v>
@@ -3897,13 +3900,13 @@
         <v>924125</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3921,13 @@
         <v>1409691</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>868</v>
@@ -3933,13 +3936,13 @@
         <v>940556</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>2193</v>
@@ -3948,18 +3951,18 @@
         <v>2350247</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3980,7 +3983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245EE24B-3A08-4F52-AE02-505F65CF29BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A542896A-5C47-45E5-B9B9-8B91E578FBED}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3997,7 +4000,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4104,13 +4107,13 @@
         <v>8116</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>213</v>
+        <v>281</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4119,13 +4122,13 @@
         <v>2682</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4134,13 +4137,13 @@
         <v>10798</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4158,13 @@
         <v>4861</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>90</v>
+        <v>291</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4170,13 +4173,13 @@
         <v>3390</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -4185,13 +4188,13 @@
         <v>8251</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +4209,13 @@
         <v>5942</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4221,13 +4224,13 @@
         <v>7233</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4236,19 +4239,19 @@
         <v>13174</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>14</v>
@@ -4257,13 +4260,13 @@
         <v>14473</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4272,13 +4275,13 @@
         <v>6470</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>310</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -4287,19 +4290,19 @@
         <v>20944</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>10</v>
@@ -4308,13 +4311,13 @@
         <v>10629</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -4323,13 +4326,13 @@
         <v>10116</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -4338,13 +4341,13 @@
         <v>20745</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>84</v>
+        <v>320</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>321</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4362,13 @@
         <v>44021</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -4374,13 +4377,13 @@
         <v>29891</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>75</v>
@@ -4389,18 +4392,18 @@
         <v>73912</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4412,13 +4415,13 @@
         <v>24055</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -4427,13 +4430,13 @@
         <v>23014</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -4442,13 +4445,13 @@
         <v>47068</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,13 +4466,13 @@
         <v>24190</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -4478,13 +4481,13 @@
         <v>22112</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>121</v>
+        <v>336</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="M11" s="7">
         <v>45</v>
@@ -4493,13 +4496,13 @@
         <v>46301</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>340</v>
+        <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +4517,13 @@
         <v>48126</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -4529,13 +4532,13 @@
         <v>35357</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>142</v>
+        <v>342</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M12" s="7">
         <v>83</v>
@@ -4544,19 +4547,19 @@
         <v>83483</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>45</v>
@@ -4565,13 +4568,13 @@
         <v>47141</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4580,13 +4583,13 @@
         <v>27877</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>231</v>
+        <v>351</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -4595,19 +4598,19 @@
         <v>75019</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>356</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>357</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>51</v>
@@ -4616,13 +4619,13 @@
         <v>55758</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -4631,13 +4634,13 @@
         <v>29118</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M14" s="7">
         <v>81</v>
@@ -4646,13 +4649,13 @@
         <v>84876</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4670,13 @@
         <v>199269</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>142</v>
@@ -4682,13 +4685,13 @@
         <v>137478</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>330</v>
@@ -4697,18 +4700,18 @@
         <v>336747</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4720,13 +4723,13 @@
         <v>51104</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -4735,13 +4738,13 @@
         <v>31425</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>244</v>
+        <v>367</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>370</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>76</v>
@@ -4750,13 +4753,13 @@
         <v>82529</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>372</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,13 +4774,13 @@
         <v>59976</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -4786,13 +4789,13 @@
         <v>48030</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>377</v>
+        <v>325</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -4801,13 +4804,13 @@
         <v>108006</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4825,13 @@
         <v>97787</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H18" s="7">
         <v>69</v>
@@ -4837,13 +4840,13 @@
         <v>68210</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M18" s="7">
         <v>158</v>
@@ -4852,19 +4855,19 @@
         <v>165997</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>89</v>
@@ -4873,13 +4876,13 @@
         <v>100206</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -4888,13 +4891,13 @@
         <v>61229</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M19" s="7">
         <v>149</v>
@@ -4903,19 +4906,19 @@
         <v>161435</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>396</v>
+        <v>285</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>397</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>95</v>
@@ -4924,13 +4927,13 @@
         <v>104968</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -4939,13 +4942,13 @@
         <v>64877</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>403</v>
+        <v>280</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="M20" s="7">
         <v>154</v>
@@ -4954,13 +4957,13 @@
         <v>169844</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4978,13 @@
         <v>414041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -4990,13 +4993,13 @@
         <v>273771</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>639</v>
@@ -5005,18 +5008,18 @@
         <v>687812</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5028,13 +5031,13 @@
         <v>46083</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -5043,13 +5046,13 @@
         <v>33567</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="M22" s="7">
         <v>73</v>
@@ -5058,13 +5061,13 @@
         <v>79650</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>413</v>
+        <v>244</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5082,13 @@
         <v>78648</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>186</v>
+        <v>409</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H23" s="7">
         <v>65</v>
@@ -5094,13 +5097,13 @@
         <v>64822</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>173</v>
+        <v>413</v>
       </c>
       <c r="M23" s="7">
         <v>135</v>
@@ -5109,13 +5112,13 @@
         <v>143470</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>420</v>
+        <v>261</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,13 +5133,13 @@
         <v>111411</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>422</v>
+        <v>341</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H24" s="7">
         <v>76</v>
@@ -5145,13 +5148,13 @@
         <v>77642</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="M24" s="7">
         <v>176</v>
@@ -5160,19 +5163,19 @@
         <v>189054</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>428</v>
+        <v>397</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>53</v>
@@ -5181,13 +5184,13 @@
         <v>59245</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>126</v>
+        <v>423</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>431</v>
+        <v>77</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -5196,13 +5199,13 @@
         <v>36546</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>434</v>
+        <v>66</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -5211,19 +5214,19 @@
         <v>95791</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>437</v>
+        <v>365</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>64</v>
@@ -5232,13 +5235,13 @@
         <v>68433</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -5247,13 +5250,13 @@
         <v>57981</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="M26" s="7">
         <v>119</v>
@@ -5262,13 +5265,13 @@
         <v>126414</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>444</v>
+        <v>29</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,13 +5286,13 @@
         <v>363820</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>265</v>
@@ -5298,13 +5301,13 @@
         <v>270558</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
@@ -5313,18 +5316,18 @@
         <v>634378</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5336,13 +5339,13 @@
         <v>52095</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>242</v>
+        <v>437</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="H28" s="7">
         <v>62</v>
@@ -5351,13 +5354,13 @@
         <v>65284</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="M28" s="7">
         <v>112</v>
@@ -5366,13 +5369,13 @@
         <v>117379</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>261</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5390,13 @@
         <v>57216</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -5402,13 +5405,13 @@
         <v>50469</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>457</v>
+        <v>292</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>158</v>
+        <v>449</v>
       </c>
       <c r="M29" s="7">
         <v>105</v>
@@ -5417,13 +5420,13 @@
         <v>107685</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>459</v>
+        <v>77</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>227</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,13 +5441,13 @@
         <v>100297</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="H30" s="7">
         <v>74</v>
@@ -5453,13 +5456,13 @@
         <v>76334</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>291</v>
+        <v>454</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="M30" s="7">
         <v>173</v>
@@ -5468,19 +5471,19 @@
         <v>176631</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>75</v>
@@ -5489,13 +5492,13 @@
         <v>76292</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>323</v>
+        <v>460</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H31" s="7">
         <v>56</v>
@@ -5504,13 +5507,13 @@
         <v>59449</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>470</v>
+        <v>258</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>13</v>
+        <v>464</v>
       </c>
       <c r="M31" s="7">
         <v>131</v>
@@ -5519,19 +5522,19 @@
         <v>135741</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>112</v>
@@ -5540,13 +5543,13 @@
         <v>115271</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>173</v>
+        <v>468</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H32" s="7">
         <v>67</v>
@@ -5555,13 +5558,13 @@
         <v>73938</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="M32" s="7">
         <v>179</v>
@@ -5570,13 +5573,13 @@
         <v>189209</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>480</v>
+        <v>139</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,13 +5594,13 @@
         <v>401171</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>307</v>
@@ -5606,13 +5609,13 @@
         <v>325474</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>700</v>
@@ -5621,13 +5624,13 @@
         <v>726645</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,13 +5647,13 @@
         <v>181453</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="H34" s="7">
         <v>154</v>
@@ -5659,13 +5662,13 @@
         <v>155972</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>186</v>
+        <v>481</v>
       </c>
       <c r="M34" s="7">
         <v>319</v>
@@ -5674,13 +5677,13 @@
         <v>337425</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5698,13 @@
         <v>224891</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H35" s="7">
         <v>187</v>
@@ -5710,13 +5713,13 @@
         <v>188822</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M35" s="7">
         <v>396</v>
@@ -5725,13 +5728,13 @@
         <v>413714</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>412</v>
+        <v>491</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>403</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,13 +5749,13 @@
         <v>363562</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="H36" s="7">
         <v>263</v>
@@ -5761,13 +5764,13 @@
         <v>264777</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="M36" s="7">
         <v>604</v>
@@ -5776,19 +5779,19 @@
         <v>628339</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>276</v>
@@ -5797,13 +5800,13 @@
         <v>297358</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>188</v>
+        <v>502</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>381</v>
+        <v>503</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H37" s="7">
         <v>188</v>
@@ -5812,13 +5815,13 @@
         <v>191571</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>400</v>
+        <v>507</v>
       </c>
       <c r="M37" s="7">
         <v>464</v>
@@ -5827,19 +5830,19 @@
         <v>488929</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>507</v>
+        <v>258</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>508</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>332</v>
@@ -5851,10 +5854,10 @@
         <v>509</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>140</v>
+        <v>510</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H38" s="7">
         <v>221</v>
@@ -5863,13 +5866,13 @@
         <v>236029</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M38" s="7">
         <v>553</v>
@@ -5878,13 +5881,13 @@
         <v>591087</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5899,13 +5902,13 @@
         <v>1422322</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>1013</v>
@@ -5914,13 +5917,13 @@
         <v>1037172</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>2336</v>
@@ -5929,18 +5932,18 @@
         <v>2459494</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
